--- a/500all/speech_level/speeches_CHRG-114hhrg97543.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97543.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400316</t>
   </si>
   <si>
-    <t>Collin C. Peterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. And I would like to welcome today's witnesses to the Committee.    A strong ag sector and stable food supply is critical to national security, and agriculture has an important role to play when it comes to our country's national security interests. It is something I don't think a lot of people really understand, and I appreciate the Chairman giving a shout-out to our former Chairman, Mr. de la Garza, who was a great Chairman of this Committee for many years.    The Chairman. And a Texan.</t>
   </si>
   <si>
@@ -64,24 +61,15 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Negroponte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Negroponte. Thank you very much, Mr. Chairman, Ranking Member Peterson, and Members of the Committee. I appreciate the opportunity to discuss the relationship between national security and agriculture. And before I give a brief summary of my testimony, I would like to mention that I knew Kika de la Garza. I knew him very well because he was also head of the U.S.-Mexico Congressional Caucus that used to meet periodically, the two legislatures, and he led the delegations down to Mexico City all the time. And, of course, being from the border area there in Texas, and having a Latino background, he knew Mexico extremely well.    I also want to mention that during the course of my foreign service career and diplomatic career, I had nine overseas postings altogether during the 44 years that I worked in government, but I can hardly think of a place where I served where agriculture didn't figure prominently in one way or another in the situations we were dealing with. Whether it was a crisis of some kind, or whether it had to do with our analysis of local, political, and economic conditions; you can't understand another country in most instances unless you understand something about their rural areas and agricultural conditions.    And I was thinking, my first assignment in 1961 was to Hong Kong. And you would say, ``Well, what does that have to do with agriculture?'' Well, back then, we were trying to figure out whether there was a famine in China. And we didn't have the means of intelligence that we have today, we would just send a satellite and go survey a little bit of the terrain and so forth, and we would probably be able to figure things out pretty fast, but we couldn't back then. We relied on refugee reports, we relied on people pouring over Chinese language newspapers that got smuggled out of China. Remember, there was the Bamboo Curtain at that time. We had a whole basement of a warehouse in Hong Kong where we got all these newspapers, and then we had people translating these articles trying to look for traces of information about what the agricultural conditions were in China at that time. And we used to have some fierce debates amongst us as to just how bad conditions were because our intelligence wasn't that good.    Vietnam, of course, I served there, and what more important a country in the area for rice production, the Mekong Delta, fabulously fertile country. I was there during the war from 1964 to 1968 and, of course, agricultural production during those wartime conditions dropped precipitately, and a country that had been exporting 1.5 or so million tons of rice in 1939, before World War II, by the time of the Vietnam war, was importing food. And that was one of our major programs, a commodity import program, to satisfy the food needs of the Vietnamese people during the course of the war.    I can go on. Ecuador, biggest banana producer in the world. Mexico, of course, myriad agricultural issues, had to do with NAFTA--the whole NAFTA question intersected. And how are subsistence farmers in Mexico going to fare in the wake of becoming more globalized as the Mexican economy has. And Iraq, of course, my last post abroad, we are talking about Mesopotamia, the land of two rivers, where, an ancient civilization, they were practically the inventors of agriculture as we know it. And by the time I got there, believe me, there was nothing in the way of agricultural production. And it was really a sad story, and I don't think it has gotten much better since. But maybe some day they will restore their irrigation system that they had, which wasn't bad, and grow the date palms back that Saddam Hussein had cut down, down in the marshland areas, and so on and so forth. So you cannot escape the importance of agriculture.    The other thing I would like to say as a general observation concerning America and its standing in the world, agriculture is a public good for us, I mean, and the way we have conducted our agriculture over the past century and a half. And it is a global public good as well. How many times have countries faced severe food shortages and crises where they relied on us to help breach that gap, whether it was Russia during certain very difficult times during the period of detente, and elsewhere around the world? We owe that, obviously, to our farmers, but we also owe it to farsighted policymakers, starting with Abraham Lincoln back in 1861 with the Homestead Act, and all that that has implied ever since. And thank goodness, we have kept up and nurtured the policies that were developed then.    I see I am already practically out of time. Let me just say with regard to my testimony, initially, I discussed some global trends, the globalized supply chain, which is becoming more important every day. I discussed how the issue of resource security, especially water, may become to us in the decades ahead what oil has represented in the past. And we don't have to look far beyond California to see that. But in the Middle East it is a serious problem. They say that Syria's drought over the past several years has been a really exacerbating factor to the population there, and of course, helps create fertile ground for recruitment for terrorist groups. If people are unemployed, subsistence farmers are out of a job, they have no water to grow crops, they are very vulnerable to these kind of predatory behaviors by people like ISIS.    On a positive side, the rising global middle-class, and that is going to--resulting in changes in consumption patterns, especially in the rich and middle-income countries. And that has its positive implications for United States agriculture in terms of demand for more value-added products. We saw that in Mexico in the wake of the NAFTA, and our exports of value-added and finished agricultural products is very good.    There is the trend of skepticism of science, especially biotechnology, that has been an issue, especially with genetically-modified crops. I think most of us here in America see that as a problem and an issue with the countries that have been resisting that, and it is going to be something we are going to have to deal with as we go on in the future.    There is the long-term trend of rising energy prices. It doesn't seem that way right at this moment with the low price of oil and the low price of natural gas, but the longer-term trend is going to continue to be high, and how agriculture copes with the rising input costs.    And then last, I would say there is the exclusion of too many people from the global economy; some 1.4 billion subsistence farmers around the world who cannot make ends meet, and who are becoming even increasingly marginalized by our increasingly globalized economy. I can think, again, back to Mexico, of those maize farmers, the corn farmers in Mexico who grew corn for subsistence. And obviously, once we got the NAFTA and we succeeded in getting the agricultural sector trade opened up between the two countries, with just a couple of exceptions, this was going to be a threat to the subsistence farmers in that country, and all the social ramifications of that issue; people coming from the countryside and into the cities. And as you know, in Mexico they don't necessarily stop when they get to Mexico City or Monterrey or Guadalajara, they just keep on coming up to the United States. So there are a lot of implications to the fact of subsistence farmers not being able to squeeze out a living.    Let me stop there, Mr. Chairman. I am sorry I ran over, but there is so much to talk about.</t>
   </si>
   <si>
-    <t>Beckham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Beckham. Thank you. Well, good morning, Chairman Conaway, Ranking Member Peterson, and Members of the House Committee on Agriculture.    My name is Tammy Beckham, and I am the Dean of the College of Veterinary Medicine at Kansas State University. I want to thank you for the opportunity to speak to you today regarding the importance of American agriculture and its relationship to U.S. national security.    So as we have heard, the U.S. agricultural sector is very diverse, it is complex, and it is a highly integrated enterprise whose health and productivity is vital to the national and global economy, the safety and security of our food systems, and ultimately the health and safety of the public health sector.    U.S. agricultural enterprise is a $1 trillion business, the largest exporter of food, and employs approximately 9.2 percent of American workers. And as I testify before you today, U.S. citizens reap the benefits of a robust agricultural industry that provides them with access to safe, abundant, and affordable food. U.S. consumers spend on average only 6.4 percent of their annual expenditures on food, and if you compare and contrast this to the 11 to 47 percent globally, the robustness and productivity of our agricultural enterprise becomes readily apparent.    This is indeed a privilege that, as you well know, does not exist globally. There are currently 870 million people around the world that do not have access to safe and nutritious food in a sufficient supply, and by the year 2050, the global population is expected to exceed nine billion people. The very elements that make the U.S. agricultural system robust and productive are also the same ones that make it vulnerable to a natural or intentional introduction of a biological agent.    The U.S. agriculture and public health systems, while free from devastating diseases such as Foot and Mouth Disease, African Swine Fever, and Rift Valley Fever, as well as other highly pathogenic livestock diseases, emerging, and zoonotic diseases, are increasingly becoming a risk for an introduction of these pathogens. It has been estimated that over 75 percent of all emerging pathogens are zoonotic, and that zoonotic pathogens are twice as likely to be associated with an emerging disease than non-zoonotic pathogens. The impact from these diseases can lead to devastating economic and public health implications. A study that was recently completed by Kansas State University researchers predicted that costs associated with Foot and Mouth Disease outbreak in the Midwest U.S. and in the cattle industry could result in a total of $188 billion in losses to the livestock industries. In addition, we recently learned firsthand from Porcine Epidemic Diarrhea Virus, or PEDv, high-path AI, just how significant these disruptions to our economy can be.    All these things said, it probably wasn't until the 2014 Ebola virus disease outbreak in the U.S. that our nation's gap in preparedness for an emerging and zoonotic disease were fully realized. We lacked licensed medical countermeasures, the scientific knowledge about Ebola virus disease in animals and livestock, and a trained workforce that was able to handle these types of diseases and knew what to do. And simply said, during this outbreak, the meaning of the term One Health took on new significance.    In order to mitigate the threats and vulnerabilities, and protect U.S. agricultural enterprise and our international markets, we must act immediately to address these gaps in biodefense. Despite a large amount of progress since 2001, the nation is still woefully under-prepared, and a coordinated and comprehensive biodefense program is lacking. Success in addressing the gaps will be heavily dependent on an organized, strategic, and well-funded approach, and this approach should institutionalize the One Health concept. It should be highly collaborative in nature, it should leverage all available resources, and encompass an international and global health component. We cannot ensure political stability abroad without addressing global disease issues and food insecurity at the international level. This will require strong U.S. leadership and engagement through initiatives such as a global health security agenda.    Coordination of a true One Health approach to biodefense has not materialized. Nowhere is this more highly visible than in the stark contrast between human and animal biodefense funding. During Fiscal Year 2014, 61 percent of Federal funding for biodefense was allocated to the Department of Health and Human Services, but by comparison, one percent of the Federal Government funding was allocated to the USDA for agricultural biodefense. If the nation is to establish a robust biodefense strategy that includes the commitment to institutionalize the One Health concept, funding levels must be increased to the agricultural sector, and they must be strategically utilized.    The U.S. agricultural sector is critically important and intimately linked to national security in the U.S. Simply stated, U.S. ag security is national security. At this moment, it is critically important that the U.S. Government and its private partners come together and work to add both a sense of urgency and direction to the nation's biodefense preparedness efforts. Appointing a central office and council that could be responsible for developing and implementing a more coordinated, cohesive, and collaborative national biodefense strategy would be a large step in this direction. Furthermore, a leader or council that could assemble a robust team of Federal and industry partners could help lower barriers that prevent our ability to truly implement the One Health initiative. Barriers to the One Health initiative could be overcome with time, collaboration, interdisciplinary programs and budgets to support and incentivize working together to prepare our nation for the next emerging disease event. Indeed, the One Health concept must be understood, adopted, and become part of the fabric of the way we approach biodefense.    And finally, Chairman Conaway, Ranking Member Peterson, and Members of the House Committee on Agriculture, I want to thank you for the opportunity to speak to you today regarding the importance of agriculture to national security, and I look forward to your questions. Thank you.</t>
   </si>
   <si>
     <t>412673</t>
   </si>
   <si>
-    <t>Trent Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kelly. Thank you, Mr. Chairman. And thank you, witnesses. Thank you, Doctor, for your service, and, Ambassador, for yours also.    Very briefly, I never got to see you in Iraq, but I was over there at the same time that you were. And most of this focuses on the defense or making sure that we protect our national interests in agriculture. But there is also a very strategic interest in the way that we use agriculture as a tool, as an offensive tool to help us in our strategic interests overseas. I had a young captain, who was older than me, but a captain in Iraq, Captain Jessie Cornelius, who was an agriculture teacher at home, during my first tour in Iraq, and I dealt mostly with the Al-Hillah Embassy there, but he was very, very good in understanding how we could use agriculture as an offensive tool to help plug into the culture there in Iraq and help them learn how to irrigate better. So I would be interested not just in the defensive aspects, but how we can use agriculture either in combination with our military units, or also as civilian organizations to strategically help the United States in other regions.</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. And I thank the witnesses.    And I turn now to Ambassador Negroponte. I want to especially thank you for your service to this country; a long and varied service in extraordinary places. And we did first meet in Iraq, and I listened to the exchange here, Mr. Kelly, and it occurred to me not only did Saddam not spend any money on irrigation, but he shut the water off to the swamp Arabs to dry them out.</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>400263</t>
   </si>
   <si>
-    <t>James P. McGovern</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McGovern. Well, thank you, Mr. Chairman. And thank you both for being here. I appreciate it.    Ambassador, I am a big fan of your wife, Diana, by the way.</t>
   </si>
   <si>
@@ -214,9 +196,6 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman. Thank you to our witnesses. It is interesting.    Ambassador, you recollect a little bit about what has happened in the past. Obviously, national security and economic security in agriculture all fit together, everybody is in agreement with that, but I want to take a little bit of a different take. When you talk about this mechanism of technology, science, and I don't think enough people realize this so I am going to say it, but I can give you many examples, but the best example I have is corn production. In 1950, the U.S. national average of corn was 50 bushels an acre. When I started farming in 1975, to have a 100 bushel corn crop was considered good. That was to become my goal. Now we are doing almost twice that. And I don't know what the acres are that have declined, but we know the tillable acres in this country have been taken out of production--some acres have been taken out of production, obviously, urban sprawl and all that. And I can remember not too many years ago a 10 billion bushel corn crop was a big crop. Last 2 years, we had 14 billion bushel corn crops. So if we weren't doing--if American agriculture wasn't doing what we are doing we would have a food crisis already----</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Yes, thank you, Mr. Chairman. Good morning.    I was very interested in this topic, and I am very grateful to the Chairman and Ranking Member for having this discussion. One of the things that one of my colleagues talked about were the countries that do this well. What are the countries that we feel present the most instability and are the biggest threats and concerns to the United States in terms of importing food into this country?</t>
   </si>
   <si>
@@ -316,9 +292,6 @@
     <t>412400</t>
   </si>
   <si>
-    <t>Eric A. "Rick" Crawford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crawford. Thank you, Mr. Chairman. Ambassador, Dr. Beckham, thank you for being here.    Ambassador--actually, this is probably a question for both of you. Well, I will start with you, Ambassador. In 2013, the EPA released some personally identifiable information of poultry and livestock producers, and specifically, they had geospatial business, individual data, that was released pursuant to a FOIA request by environmental groups. USDA and DHHS have expressed some concern that release of this type of information poses a biosecurity risk. I certainly would agree with that.    Do you agree that the aggregation and dissemination of detailed information on livestock facilities can pose a threat to bioterrorism, and what would you say to the EPA, and would you support proposals to caution them from that type of behavior in the future?</t>
   </si>
   <si>
@@ -340,9 +313,6 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chairman. And thanks to both of you for your testimony today.    The recent outbreak of avian flu was highly detrimental for egg prices in the U.S., which negatively impacts consumers and our egg users in the baking and restaurant industry. Worse, disruptions in food supply hurt our most vulnerable.    Ms. Beckham, while we can't stop every pathogen that travels through our ports of entry, what investments can we make to mitigate the damage from animal diseases that harm our nation's food?</t>
   </si>
   <si>
@@ -367,9 +337,6 @@
     <t>412630</t>
   </si>
   <si>
-    <t>Ralph Lee Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Chairman. Dr. Beckham, you and I have a little commonality, being a veterinarian, and an M.D. Also, I am very interested and impressed with your knowledge on the zoonotic diseases. And as you said in your testimony that 75 percent of the emerging pathogens are probably zoonotic in nature. And my concern is on the legislative front, this large discrepancy between DHHS and the USDA as far as biodefense allocations. Why do you think they--there is that wide chasm between both agencies, because they are fighting, hopefully, the same type of entity, why the discrepancy between the USDA and the DHHS as far as funding?</t>
   </si>
   <si>
@@ -403,9 +370,6 @@
     <t>412558</t>
   </si>
   <si>
-    <t>Michelle Lujan Grisham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman. And I know many of my colleagues, including Congressman King, really talked about whether we are doing enough as we are importing, Dr. Beckham, beef from other countries, and whether or not we are doing everything that we can to ensure that we are not reintroducing Foot and Mouth, and other zoonotic diseases, with the viral capacity to really not just threaten our food supply and the herds, but in my state, when I look at the agricultural footprint and the value and importance of our cattle and beef industry, we could lose whole herds and farms and ranchers. That is something that certainly my constituents, and I know not just in my state, but all of us hear a lot about and are very, very concerned about. And while your efforts here to educate and to do surveillance, and that public health environment, I have to say I really applaud that we have a robust surveillance, education, and monitoring system here. But, as you were describing our abilities to do that outside of the U.S., it is not as robust, and it seems to me that we have a long way to go to create that kind of environment.    Is there anything else that you haven't had the time to hit on that gives us more confidence, because I am beginning to feel or be a little concerned that maybe that importation is a bit premature, given that we don't have those mechanisms in place in some of these other countries?</t>
   </si>
   <si>
@@ -445,9 +409,6 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Chairman. Well, thank you both for being here. Amazing resumes.    Ambassador, you mentioned something to me that I didn't quite understand, and that is that the plight of subsistence farmers, you mentioned, in some of these foreign countries has gotten worse because of global trade. Can you explain that to me?</t>
   </si>
   <si>
@@ -502,9 +463,6 @@
     <t>412660</t>
   </si>
   <si>
-    <t>Dan Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. Thank you both for being here this morning. I appreciate your testimony and I appreciate both of your service.    I am hopeful that Americans think about their food supply, but my guess is that they probably don't worry about it as much as many of us do. We rely on importations of a lot of food to make our food supply complete. With the potential of all kinds of things that can happen in this world; wars or some kind of an outbreak of some kind, do you think, Ambassador, should we be making plans for more secure domestic food supplies as well as farm inputs, and understanding that there is a balance of other countries' agricultural industries depend on customers abroad, but is there something more we should be doing to secure our domestic food supply in case of an adverse event?</t>
   </si>
   <si>
@@ -583,9 +541,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman.    The wonderful opportunity we have to ask questions sometimes at the end of the hearing means that all the questions I had written have already been taken. But that is okay. My colleagues, they know I am never at a shortage of being able to use my time to ask any other questions.    This is an issue that is very important to me, since I represent central Illinois, and what I would consider the breadbasket of America and the world. And agro-terrorism is a concern that I don't think many of my constituents think about. So the discussion we have had here today, going along with your written testimony, Ambassador, you mentioned the problem that gets talked about in this Committee a lot, is we have to feed millions more people in the future with the technology, the land, and the products that we have today. So how do we continue to make America even more productive, even though we are the safest and most productive food suppliers in the world?    And, Dr. Beckham, in your written testimony, you actually stated the very elements that make the U.S. agricultural system robust and productive, also make it vulnerable to an incident. I am the father of three kids. I mean that is very scary to me, and something that I don't normally think about on a daily basis, and we hear some things that make you really scared as a parent. We have to feed nine billion people by 2050, and as you know, we have to continue to lead. And with that in mind, how do we increase our ag production both in your industry and in the grain industry too? What can we do, and how does biotechnology play a role in this?</t>
   </si>
   <si>
@@ -610,9 +565,6 @@
     <t>412641</t>
   </si>
   <si>
-    <t>David Rouzer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rouzer. Thank you, Mr. Chairman. And thank you both for being here today. I appreciate it very, very much. And I found both of your testimonies very intriguing.    I have always felt like if we got our agriculture policy right, our energy policy right, and our infrastructure policy right, we are in the catbird seat for centuries to come.    Now, one issue that is very, very intriguing to me, and I am trying to wrap my mind around it, Mr. Ambassador, you talked about it a little earlier during the course of this hearing, and that is water. I never would have thought when I was growing up as a kid that one day I would be drinking a bottle of water that you buy. When I was growing up, if you wanted water, you just went to your garden hose. And much less never would have thought anybody would pay $5 for a cup of coffee. So the world changes. And certainly, water is becoming more and more of a scarce resource. In agriculture you can't grow anything without the sun and without water. Mr. Newhouse and I, and several other Members, were in Israel earlier this year during the course of the August recess, and they do a magnificent job over there of water conservation and recycling of their water. And I believe, if I recall, they recycle close to 80 percent of their water there. So I am just curious, based on your experience and your thoughts, if you could talk more about water and the issue, and what we need to be doing here in this country. Obviously, it has been a very acute problem in California and other parts of the country based on the climate, et cetera, and it is something we really need to start thinking about now. And so I am just curious your thoughts and analysis of that.</t>
   </si>
   <si>
@@ -631,9 +583,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman. Dr. Beckham, Ambassador, thank you so much for being here. This is a gravely important topic. There is a lot at risk if we don't properly prepare, obviously.    Dr. Beckham, the numbers that you shared in America how we are blessed with affordable food, 6.4 percent versus a range of 11 to 47 percent; 9.2 percent of our jobs, $1 trillion business, a huge part of our gross domestic product. There is a lot at risk from many perspectives there, on all fronts.    Dr. Beckham, the most recent ag listening session I did, I was with a group of producers. We spent a morning talking about their issues, concerns, hearing what was on their mind, and they identified basically what they saw as some threats, obviously, to food security or food insecurity. Workforce was on there, regulations was on there. They talked about what it is like to be a producer and to have a regulation you have to follow, and the guidance you are given is 1,000 pages from USDA. And then, of course, bioterrorism came up as well.    Now, you have shared some recommendations to deal with the agro-terrorism. What I see is the food integrity perspective for food safety, and really some good things. Incentivize interdisciplinary work, better centralized coordination, better surveillance and education. I wanted to run by you one of the solutions that these producers shared with me, to get your thoughts on. It was more frontline, actually, but it was to see more of a presence through our extension program, which I am a huge fan of extension. There aren't many places where we have an agent that is really focused with an expertise on food safety or integrity, and to have that--now, that is really a boots on the ground level, but somebody to be there to counsel, to advise, to guide producers around these food safety and what I would call food integrity issues. I wanted to get your thoughts on what these folks had suggested.</t>
   </si>
   <si>
@@ -656,9 +605,6 @@
   </si>
   <si>
     <t>412625</t>
-  </si>
-  <si>
-    <t>Rick W. Allen</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Allen. Thank you. And I had to run out for a moment. I have two hearings going on here simultaneously, but I want to thank you for your testimony earlier. And I want to express to you that I do believe that if we can help other countries develop their agriculture, then I believe that that country will be a friend for life. I grew up on a farm, it is very important not only to feeding people, but it is also very good as far as dignity and the ability to produce something, particularly as valuable as food is, particularly in certain areas of the world.    I guess my question is, there are some nations, obviously, that are difficult to deal with, but are we doing all we need to do in those nations, some kind to mind, I have been on mission trips in several areas of the world; Moldova, Kenya, South Africa, South America. Are we doing everything that we need to do from the standpoint of this House, as far as making this available to these countries?</t>
@@ -1120,11 +1066,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1146,11 +1090,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1170,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1196,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1222,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1248,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1274,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1300,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1326,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1352,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1378,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1404,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1432,11 +1354,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1456,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1484,11 +1402,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1508,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1536,11 +1450,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1560,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1586,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1612,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1638,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1664,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1690,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1716,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1742,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1768,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1794,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1820,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1846,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1872,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1898,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1924,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1950,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1976,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2002,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2028,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2054,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2080,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2106,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2132,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2158,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2184,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
         <v>55</v>
-      </c>
-      <c r="H43" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2210,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2236,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2262,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2288,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2314,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2340,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2366,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2392,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2418,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2444,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>65</v>
-      </c>
-      <c r="G53" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2470,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2496,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2522,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2548,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2574,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2600,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2626,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2652,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2678,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2704,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2730,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2756,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2782,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2808,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2834,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>80</v>
-      </c>
-      <c r="G68" t="s">
-        <v>81</v>
-      </c>
-      <c r="H68" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2860,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
         <v>81</v>
-      </c>
-      <c r="H69" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2886,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2912,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2938,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2964,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2990,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3016,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3042,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3068,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3094,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3120,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3146,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3172,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3198,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3224,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3250,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3276,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3302,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3328,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3354,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3380,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3406,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3432,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3458,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3484,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3510,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3536,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3562,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
-      </c>
-      <c r="G96" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3588,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3614,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>116</v>
-      </c>
-      <c r="G98" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3640,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3666,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3692,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3718,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
-      </c>
-      <c r="G102" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3744,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3770,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3796,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
+        <v>106</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>116</v>
-      </c>
-      <c r="G105" t="s">
-        <v>117</v>
-      </c>
-      <c r="H105" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3822,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
-      </c>
-      <c r="G106" t="s">
-        <v>129</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3848,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3874,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
-      </c>
-      <c r="G108" t="s">
-        <v>129</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3900,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3926,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>128</v>
-      </c>
-      <c r="G110" t="s">
-        <v>129</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3952,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3978,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4004,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4030,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4056,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4082,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
+        <v>117</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
         <v>128</v>
-      </c>
-      <c r="G116" t="s">
-        <v>129</v>
-      </c>
-      <c r="H116" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4108,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>128</v>
-      </c>
-      <c r="G117" t="s">
+        <v>117</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
         <v>129</v>
-      </c>
-      <c r="H117" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4134,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>142</v>
-      </c>
-      <c r="G118" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4160,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4186,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>142</v>
-      </c>
-      <c r="G120" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4212,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4238,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>142</v>
-      </c>
-      <c r="G122" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4264,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4290,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>142</v>
-      </c>
-      <c r="G124" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4316,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>142</v>
-      </c>
-      <c r="G125" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4342,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4368,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
-      </c>
-      <c r="G127" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4394,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4420,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4446,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>142</v>
-      </c>
-      <c r="G130" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4472,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4498,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
+        <v>130</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
         <v>142</v>
-      </c>
-      <c r="G132" t="s">
-        <v>143</v>
-      </c>
-      <c r="H132" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4524,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4550,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>142</v>
-      </c>
-      <c r="G134" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4576,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4602,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>142</v>
-      </c>
-      <c r="G136" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4628,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>142</v>
-      </c>
-      <c r="G137" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4654,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>161</v>
-      </c>
-      <c r="G138" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4680,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4706,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>161</v>
-      </c>
-      <c r="G140" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4732,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4758,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>161</v>
-      </c>
-      <c r="G142" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4784,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4810,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>161</v>
-      </c>
-      <c r="G144" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4836,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>161</v>
-      </c>
-      <c r="G145" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4862,13 +4520,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4888,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>161</v>
-      </c>
-      <c r="G147" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4914,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4940,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>161</v>
-      </c>
-      <c r="G149" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4966,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4992,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
+        <v>148</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
         <v>161</v>
-      </c>
-      <c r="G151" t="s">
-        <v>162</v>
-      </c>
-      <c r="H151" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5018,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>161</v>
-      </c>
-      <c r="G152" t="s">
+        <v>148</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
         <v>162</v>
-      </c>
-      <c r="H152" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5044,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5070,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>161</v>
-      </c>
-      <c r="G154" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5096,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G155" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5122,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5148,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>161</v>
-      </c>
-      <c r="G157" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5174,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5200,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>161</v>
-      </c>
-      <c r="G159" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5226,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>161</v>
-      </c>
-      <c r="G160" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5252,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>161</v>
-      </c>
-      <c r="G161" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5278,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5304,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>161</v>
-      </c>
-      <c r="G163" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5330,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>161</v>
-      </c>
-      <c r="G164" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5356,13 +4976,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>188</v>
-      </c>
-      <c r="G165" t="s">
-        <v>189</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5382,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5408,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>188</v>
-      </c>
-      <c r="G167" t="s">
-        <v>189</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5434,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5460,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>188</v>
-      </c>
-      <c r="G169" t="s">
-        <v>189</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5486,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5512,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>188</v>
-      </c>
-      <c r="G171" t="s">
-        <v>189</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5538,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>197</v>
-      </c>
-      <c r="G172" t="s">
-        <v>198</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5564,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5590,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>197</v>
-      </c>
-      <c r="G174" t="s">
-        <v>198</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5616,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5642,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>197</v>
-      </c>
-      <c r="G176" t="s">
-        <v>198</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5668,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>204</v>
-      </c>
-      <c r="G177" t="s">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5694,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5720,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>204</v>
-      </c>
-      <c r="G179" t="s">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5746,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5772,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>204</v>
-      </c>
-      <c r="G181" t="s">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5798,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
-      </c>
-      <c r="G182" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5824,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>204</v>
-      </c>
-      <c r="G183" t="s">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5850,13 +5432,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>213</v>
-      </c>
-      <c r="G184" t="s">
-        <v>214</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5876,13 +5456,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5902,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>213</v>
-      </c>
-      <c r="G186" t="s">
-        <v>214</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5928,13 +5504,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5954,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5980,13 +5552,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>15</v>
-      </c>
-      <c r="G189" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6006,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6032,13 +5600,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>15</v>
-      </c>
-      <c r="G191" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6058,13 +5624,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>213</v>
-      </c>
-      <c r="G192" t="s">
-        <v>214</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6084,13 +5648,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6110,13 +5672,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>213</v>
-      </c>
-      <c r="G194" t="s">
-        <v>214</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6136,13 +5696,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>15</v>
-      </c>
-      <c r="G195" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6162,13 +5720,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>213</v>
-      </c>
-      <c r="G196" t="s">
-        <v>214</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6188,13 +5744,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>213</v>
-      </c>
-      <c r="G197" t="s">
-        <v>214</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6214,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>15</v>
-      </c>
-      <c r="G198" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6240,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6266,13 +5816,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6292,13 +5840,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>15</v>
-      </c>
-      <c r="G201" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6318,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>15</v>
-      </c>
-      <c r="G202" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6344,13 +5888,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>15</v>
-      </c>
-      <c r="G203" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6370,13 +5912,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
-      </c>
-      <c r="G204" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6396,13 +5936,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6422,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>15</v>
-      </c>
-      <c r="G206" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97543.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97543.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400316</t>
   </si>
   <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. And I would like to welcome today's witnesses to the Committee.    A strong ag sector and stable food supply is critical to national security, and agriculture has an important role to play when it comes to our country's national security interests. It is something I don't think a lot of people really understand, and I appreciate the Chairman giving a shout-out to our former Chairman, Mr. de la Garza, who was a great Chairman of this Committee for many years.    The Chairman. And a Texan.</t>
   </si>
   <si>
@@ -61,15 +70,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Negroponte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Negroponte. Thank you very much, Mr. Chairman, Ranking Member Peterson, and Members of the Committee. I appreciate the opportunity to discuss the relationship between national security and agriculture. And before I give a brief summary of my testimony, I would like to mention that I knew Kika de la Garza. I knew him very well because he was also head of the U.S.-Mexico Congressional Caucus that used to meet periodically, the two legislatures, and he led the delegations down to Mexico City all the time. And, of course, being from the border area there in Texas, and having a Latino background, he knew Mexico extremely well.    I also want to mention that during the course of my foreign service career and diplomatic career, I had nine overseas postings altogether during the 44 years that I worked in government, but I can hardly think of a place where I served where agriculture didn't figure prominently in one way or another in the situations we were dealing with. Whether it was a crisis of some kind, or whether it had to do with our analysis of local, political, and economic conditions; you can't understand another country in most instances unless you understand something about their rural areas and agricultural conditions.    And I was thinking, my first assignment in 1961 was to Hong Kong. And you would say, ``Well, what does that have to do with agriculture?'' Well, back then, we were trying to figure out whether there was a famine in China. And we didn't have the means of intelligence that we have today, we would just send a satellite and go survey a little bit of the terrain and so forth, and we would probably be able to figure things out pretty fast, but we couldn't back then. We relied on refugee reports, we relied on people pouring over Chinese language newspapers that got smuggled out of China. Remember, there was the Bamboo Curtain at that time. We had a whole basement of a warehouse in Hong Kong where we got all these newspapers, and then we had people translating these articles trying to look for traces of information about what the agricultural conditions were in China at that time. And we used to have some fierce debates amongst us as to just how bad conditions were because our intelligence wasn't that good.    Vietnam, of course, I served there, and what more important a country in the area for rice production, the Mekong Delta, fabulously fertile country. I was there during the war from 1964 to 1968 and, of course, agricultural production during those wartime conditions dropped precipitately, and a country that had been exporting 1.5 or so million tons of rice in 1939, before World War II, by the time of the Vietnam war, was importing food. And that was one of our major programs, a commodity import program, to satisfy the food needs of the Vietnamese people during the course of the war.    I can go on. Ecuador, biggest banana producer in the world. Mexico, of course, myriad agricultural issues, had to do with NAFTA--the whole NAFTA question intersected. And how are subsistence farmers in Mexico going to fare in the wake of becoming more globalized as the Mexican economy has. And Iraq, of course, my last post abroad, we are talking about Mesopotamia, the land of two rivers, where, an ancient civilization, they were practically the inventors of agriculture as we know it. And by the time I got there, believe me, there was nothing in the way of agricultural production. And it was really a sad story, and I don't think it has gotten much better since. But maybe some day they will restore their irrigation system that they had, which wasn't bad, and grow the date palms back that Saddam Hussein had cut down, down in the marshland areas, and so on and so forth. So you cannot escape the importance of agriculture.    The other thing I would like to say as a general observation concerning America and its standing in the world, agriculture is a public good for us, I mean, and the way we have conducted our agriculture over the past century and a half. And it is a global public good as well. How many times have countries faced severe food shortages and crises where they relied on us to help breach that gap, whether it was Russia during certain very difficult times during the period of detente, and elsewhere around the world? We owe that, obviously, to our farmers, but we also owe it to farsighted policymakers, starting with Abraham Lincoln back in 1861 with the Homestead Act, and all that that has implied ever since. And thank goodness, we have kept up and nurtured the policies that were developed then.    I see I am already practically out of time. Let me just say with regard to my testimony, initially, I discussed some global trends, the globalized supply chain, which is becoming more important every day. I discussed how the issue of resource security, especially water, may become to us in the decades ahead what oil has represented in the past. And we don't have to look far beyond California to see that. But in the Middle East it is a serious problem. They say that Syria's drought over the past several years has been a really exacerbating factor to the population there, and of course, helps create fertile ground for recruitment for terrorist groups. If people are unemployed, subsistence farmers are out of a job, they have no water to grow crops, they are very vulnerable to these kind of predatory behaviors by people like ISIS.    On a positive side, the rising global middle-class, and that is going to--resulting in changes in consumption patterns, especially in the rich and middle-income countries. And that has its positive implications for United States agriculture in terms of demand for more value-added products. We saw that in Mexico in the wake of the NAFTA, and our exports of value-added and finished agricultural products is very good.    There is the trend of skepticism of science, especially biotechnology, that has been an issue, especially with genetically-modified crops. I think most of us here in America see that as a problem and an issue with the countries that have been resisting that, and it is going to be something we are going to have to deal with as we go on in the future.    There is the long-term trend of rising energy prices. It doesn't seem that way right at this moment with the low price of oil and the low price of natural gas, but the longer-term trend is going to continue to be high, and how agriculture copes with the rising input costs.    And then last, I would say there is the exclusion of too many people from the global economy; some 1.4 billion subsistence farmers around the world who cannot make ends meet, and who are becoming even increasingly marginalized by our increasingly globalized economy. I can think, again, back to Mexico, of those maize farmers, the corn farmers in Mexico who grew corn for subsistence. And obviously, once we got the NAFTA and we succeeded in getting the agricultural sector trade opened up between the two countries, with just a couple of exceptions, this was going to be a threat to the subsistence farmers in that country, and all the social ramifications of that issue; people coming from the countryside and into the cities. And as you know, in Mexico they don't necessarily stop when they get to Mexico City or Monterrey or Guadalajara, they just keep on coming up to the United States. So there are a lot of implications to the fact of subsistence farmers not being able to squeeze out a living.    Let me stop there, Mr. Chairman. I am sorry I ran over, but there is so much to talk about.</t>
   </si>
   <si>
+    <t>Beckham</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Beckham. Thank you. Well, good morning, Chairman Conaway, Ranking Member Peterson, and Members of the House Committee on Agriculture.    My name is Tammy Beckham, and I am the Dean of the College of Veterinary Medicine at Kansas State University. I want to thank you for the opportunity to speak to you today regarding the importance of American agriculture and its relationship to U.S. national security.    So as we have heard, the U.S. agricultural sector is very diverse, it is complex, and it is a highly integrated enterprise whose health and productivity is vital to the national and global economy, the safety and security of our food systems, and ultimately the health and safety of the public health sector.    U.S. agricultural enterprise is a $1 trillion business, the largest exporter of food, and employs approximately 9.2 percent of American workers. And as I testify before you today, U.S. citizens reap the benefits of a robust agricultural industry that provides them with access to safe, abundant, and affordable food. U.S. consumers spend on average only 6.4 percent of their annual expenditures on food, and if you compare and contrast this to the 11 to 47 percent globally, the robustness and productivity of our agricultural enterprise becomes readily apparent.    This is indeed a privilege that, as you well know, does not exist globally. There are currently 870 million people around the world that do not have access to safe and nutritious food in a sufficient supply, and by the year 2050, the global population is expected to exceed nine billion people. The very elements that make the U.S. agricultural system robust and productive are also the same ones that make it vulnerable to a natural or intentional introduction of a biological agent.    The U.S. agriculture and public health systems, while free from devastating diseases such as Foot and Mouth Disease, African Swine Fever, and Rift Valley Fever, as well as other highly pathogenic livestock diseases, emerging, and zoonotic diseases, are increasingly becoming a risk for an introduction of these pathogens. It has been estimated that over 75 percent of all emerging pathogens are zoonotic, and that zoonotic pathogens are twice as likely to be associated with an emerging disease than non-zoonotic pathogens. The impact from these diseases can lead to devastating economic and public health implications. A study that was recently completed by Kansas State University researchers predicted that costs associated with Foot and Mouth Disease outbreak in the Midwest U.S. and in the cattle industry could result in a total of $188 billion in losses to the livestock industries. In addition, we recently learned firsthand from Porcine Epidemic Diarrhea Virus, or PEDv, high-path AI, just how significant these disruptions to our economy can be.    All these things said, it probably wasn't until the 2014 Ebola virus disease outbreak in the U.S. that our nation's gap in preparedness for an emerging and zoonotic disease were fully realized. We lacked licensed medical countermeasures, the scientific knowledge about Ebola virus disease in animals and livestock, and a trained workforce that was able to handle these types of diseases and knew what to do. And simply said, during this outbreak, the meaning of the term One Health took on new significance.    In order to mitigate the threats and vulnerabilities, and protect U.S. agricultural enterprise and our international markets, we must act immediately to address these gaps in biodefense. Despite a large amount of progress since 2001, the nation is still woefully under-prepared, and a coordinated and comprehensive biodefense program is lacking. Success in addressing the gaps will be heavily dependent on an organized, strategic, and well-funded approach, and this approach should institutionalize the One Health concept. It should be highly collaborative in nature, it should leverage all available resources, and encompass an international and global health component. We cannot ensure political stability abroad without addressing global disease issues and food insecurity at the international level. This will require strong U.S. leadership and engagement through initiatives such as a global health security agenda.    Coordination of a true One Health approach to biodefense has not materialized. Nowhere is this more highly visible than in the stark contrast between human and animal biodefense funding. During Fiscal Year 2014, 61 percent of Federal funding for biodefense was allocated to the Department of Health and Human Services, but by comparison, one percent of the Federal Government funding was allocated to the USDA for agricultural biodefense. If the nation is to establish a robust biodefense strategy that includes the commitment to institutionalize the One Health concept, funding levels must be increased to the agricultural sector, and they must be strategically utilized.    The U.S. agricultural sector is critically important and intimately linked to national security in the U.S. Simply stated, U.S. ag security is national security. At this moment, it is critically important that the U.S. Government and its private partners come together and work to add both a sense of urgency and direction to the nation's biodefense preparedness efforts. Appointing a central office and council that could be responsible for developing and implementing a more coordinated, cohesive, and collaborative national biodefense strategy would be a large step in this direction. Furthermore, a leader or council that could assemble a robust team of Federal and industry partners could help lower barriers that prevent our ability to truly implement the One Health initiative. Barriers to the One Health initiative could be overcome with time, collaboration, interdisciplinary programs and budgets to support and incentivize working together to prepare our nation for the next emerging disease event. Indeed, the One Health concept must be understood, adopted, and become part of the fabric of the way we approach biodefense.    And finally, Chairman Conaway, Ranking Member Peterson, and Members of the House Committee on Agriculture, I want to thank you for the opportunity to speak to you today regarding the importance of agriculture to national security, and I look forward to your questions. Thank you.</t>
   </si>
   <si>
     <t>412673</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kelly. Thank you, Mr. Chairman. And thank you, witnesses. Thank you, Doctor, for your service, and, Ambassador, for yours also.    Very briefly, I never got to see you in Iraq, but I was over there at the same time that you were. And most of this focuses on the defense or making sure that we protect our national interests in agriculture. But there is also a very strategic interest in the way that we use agriculture as a tool, as an offensive tool to help us in our strategic interests overseas. I had a young captain, who was older than me, but a captain in Iraq, Captain Jessie Cornelius, who was an agriculture teacher at home, during my first tour in Iraq, and I dealt mostly with the Al-Hillah Embassy there, but he was very, very good in understanding how we could use agriculture as an offensive tool to help plug into the culture there in Iraq and help them learn how to irrigate better. So I would be interested not just in the defensive aspects, but how we can use agriculture either in combination with our military units, or also as civilian organizations to strategically help the United States in other regions.</t>
   </si>
   <si>
@@ -112,6 +133,12 @@
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. And I thank the witnesses.    And I turn now to Ambassador Negroponte. I want to especially thank you for your service to this country; a long and varied service in extraordinary places. And we did first meet in Iraq, and I listened to the exchange here, Mr. Kelly, and it occurred to me not only did Saddam not spend any money on irrigation, but he shut the water off to the swamp Arabs to dry them out.</t>
   </si>
   <si>
@@ -166,6 +193,12 @@
     <t>400263</t>
   </si>
   <si>
+    <t>McGovern</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McGovern. Well, thank you, Mr. Chairman. And thank you both for being here. I appreciate it.    Ambassador, I am a big fan of your wife, Diana, by the way.</t>
   </si>
   <si>
@@ -196,6 +229,12 @@
     <t>412463</t>
   </si>
   <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman. Thank you to our witnesses. It is interesting.    Ambassador, you recollect a little bit about what has happened in the past. Obviously, national security and economic security in agriculture all fit together, everybody is in agreement with that, but I want to take a little bit of a different take. When you talk about this mechanism of technology, science, and I don't think enough people realize this so I am going to say it, but I can give you many examples, but the best example I have is corn production. In 1950, the U.S. national average of corn was 50 bushels an acre. When I started farming in 1975, to have a 100 bushel corn crop was considered good. That was to become my goal. Now we are doing almost twice that. And I don't know what the acres are that have declined, but we know the tillable acres in this country have been taken out of production--some acres have been taken out of production, obviously, urban sprawl and all that. And I can remember not too many years ago a 10 billion bushel corn crop was a big crop. Last 2 years, we had 14 billion bushel corn crops. So if we weren't doing--if American agriculture wasn't doing what we are doing we would have a food crisis already----</t>
   </si>
   <si>
@@ -238,6 +277,12 @@
     <t>412659</t>
   </si>
   <si>
+    <t>Plaskett</t>
+  </si>
+  <si>
+    <t>Stacey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Plaskett. Yes, thank you, Mr. Chairman. Good morning.    I was very interested in this topic, and I am very grateful to the Chairman and Ranking Member for having this discussion. One of the things that one of my colleagues talked about were the countries that do this well. What are the countries that we feel present the most instability and are the biggest threats and concerns to the United States in terms of importing food into this country?</t>
   </si>
   <si>
@@ -292,6 +337,12 @@
     <t>412400</t>
   </si>
   <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Crawford. Thank you, Mr. Chairman. Ambassador, Dr. Beckham, thank you for being here.    Ambassador--actually, this is probably a question for both of you. Well, I will start with you, Ambassador. In 2013, the EPA released some personally identifiable information of poultry and livestock producers, and specifically, they had geospatial business, individual data, that was released pursuant to a FOIA request by environmental groups. USDA and DHHS have expressed some concern that release of this type of information poses a biosecurity risk. I certainly would agree with that.    Do you agree that the aggregation and dissemination of detailed information on livestock facilities can pose a threat to bioterrorism, and what would you say to the EPA, and would you support proposals to caution them from that type of behavior in the future?</t>
   </si>
   <si>
@@ -313,6 +364,12 @@
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chairman. And thanks to both of you for your testimony today.    The recent outbreak of avian flu was highly detrimental for egg prices in the U.S., which negatively impacts consumers and our egg users in the baking and restaurant industry. Worse, disruptions in food supply hurt our most vulnerable.    Ms. Beckham, while we can't stop every pathogen that travels through our ports of entry, what investments can we make to mitigate the damage from animal diseases that harm our nation's food?</t>
   </si>
   <si>
@@ -337,6 +394,12 @@
     <t>412630</t>
   </si>
   <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Chairman. Dr. Beckham, you and I have a little commonality, being a veterinarian, and an M.D. Also, I am very interested and impressed with your knowledge on the zoonotic diseases. And as you said in your testimony that 75 percent of the emerging pathogens are probably zoonotic in nature. And my concern is on the legislative front, this large discrepancy between DHHS and the USDA as far as biodefense allocations. Why do you think they--there is that wide chasm between both agencies, because they are fighting, hopefully, the same type of entity, why the discrepancy between the USDA and the DHHS as far as funding?</t>
   </si>
   <si>
@@ -370,6 +433,12 @@
     <t>412558</t>
   </si>
   <si>
+    <t>Lujan Grisham</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman. And I know many of my colleagues, including Congressman King, really talked about whether we are doing enough as we are importing, Dr. Beckham, beef from other countries, and whether or not we are doing everything that we can to ensure that we are not reintroducing Foot and Mouth, and other zoonotic diseases, with the viral capacity to really not just threaten our food supply and the herds, but in my state, when I look at the agricultural footprint and the value and importance of our cattle and beef industry, we could lose whole herds and farms and ranchers. That is something that certainly my constituents, and I know not just in my state, but all of us hear a lot about and are very, very concerned about. And while your efforts here to educate and to do surveillance, and that public health environment, I have to say I really applaud that we have a robust surveillance, education, and monitoring system here. But, as you were describing our abilities to do that outside of the U.S., it is not as robust, and it seems to me that we have a long way to go to create that kind of environment.    Is there anything else that you haven't had the time to hit on that gives us more confidence, because I am beginning to feel or be a little concerned that maybe that importation is a bit premature, given that we don't have those mechanisms in place in some of these other countries?</t>
   </si>
   <si>
@@ -409,6 +478,12 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Chairman. Well, thank you both for being here. Amazing resumes.    Ambassador, you mentioned something to me that I didn't quite understand, and that is that the plight of subsistence farmers, you mentioned, in some of these foreign countries has gotten worse because of global trade. Can you explain that to me?</t>
   </si>
   <si>
@@ -463,6 +538,9 @@
     <t>412660</t>
   </si>
   <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. Thank you both for being here this morning. I appreciate your testimony and I appreciate both of your service.    I am hopeful that Americans think about their food supply, but my guess is that they probably don't worry about it as much as many of us do. We rely on importations of a lot of food to make our food supply complete. With the potential of all kinds of things that can happen in this world; wars or some kind of an outbreak of some kind, do you think, Ambassador, should we be making plans for more secure domestic food supplies as well as farm inputs, and understanding that there is a balance of other countries' agricultural industries depend on customers abroad, but is there something more we should be doing to secure our domestic food supply in case of an adverse event?</t>
   </si>
   <si>
@@ -541,6 +619,12 @@
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman.    The wonderful opportunity we have to ask questions sometimes at the end of the hearing means that all the questions I had written have already been taken. But that is okay. My colleagues, they know I am never at a shortage of being able to use my time to ask any other questions.    This is an issue that is very important to me, since I represent central Illinois, and what I would consider the breadbasket of America and the world. And agro-terrorism is a concern that I don't think many of my constituents think about. So the discussion we have had here today, going along with your written testimony, Ambassador, you mentioned the problem that gets talked about in this Committee a lot, is we have to feed millions more people in the future with the technology, the land, and the products that we have today. So how do we continue to make America even more productive, even though we are the safest and most productive food suppliers in the world?    And, Dr. Beckham, in your written testimony, you actually stated the very elements that make the U.S. agricultural system robust and productive, also make it vulnerable to an incident. I am the father of three kids. I mean that is very scary to me, and something that I don't normally think about on a daily basis, and we hear some things that make you really scared as a parent. We have to feed nine billion people by 2050, and as you know, we have to continue to lead. And with that in mind, how do we increase our ag production both in your industry and in the grain industry too? What can we do, and how does biotechnology play a role in this?</t>
   </si>
   <si>
@@ -565,6 +649,12 @@
     <t>412641</t>
   </si>
   <si>
+    <t>Rouzer</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rouzer. Thank you, Mr. Chairman. And thank you both for being here today. I appreciate it very, very much. And I found both of your testimonies very intriguing.    I have always felt like if we got our agriculture policy right, our energy policy right, and our infrastructure policy right, we are in the catbird seat for centuries to come.    Now, one issue that is very, very intriguing to me, and I am trying to wrap my mind around it, Mr. Ambassador, you talked about it a little earlier during the course of this hearing, and that is water. I never would have thought when I was growing up as a kid that one day I would be drinking a bottle of water that you buy. When I was growing up, if you wanted water, you just went to your garden hose. And much less never would have thought anybody would pay $5 for a cup of coffee. So the world changes. And certainly, water is becoming more and more of a scarce resource. In agriculture you can't grow anything without the sun and without water. Mr. Newhouse and I, and several other Members, were in Israel earlier this year during the course of the August recess, and they do a magnificent job over there of water conservation and recycling of their water. And I believe, if I recall, they recycle close to 80 percent of their water there. So I am just curious, based on your experience and your thoughts, if you could talk more about water and the issue, and what we need to be doing here in this country. Obviously, it has been a very acute problem in California and other parts of the country based on the climate, et cetera, and it is something we really need to start thinking about now. And so I am just curious your thoughts and analysis of that.</t>
   </si>
   <si>
@@ -583,6 +673,12 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman. Dr. Beckham, Ambassador, thank you so much for being here. This is a gravely important topic. There is a lot at risk if we don't properly prepare, obviously.    Dr. Beckham, the numbers that you shared in America how we are blessed with affordable food, 6.4 percent versus a range of 11 to 47 percent; 9.2 percent of our jobs, $1 trillion business, a huge part of our gross domestic product. There is a lot at risk from many perspectives there, on all fronts.    Dr. Beckham, the most recent ag listening session I did, I was with a group of producers. We spent a morning talking about their issues, concerns, hearing what was on their mind, and they identified basically what they saw as some threats, obviously, to food security or food insecurity. Workforce was on there, regulations was on there. They talked about what it is like to be a producer and to have a regulation you have to follow, and the guidance you are given is 1,000 pages from USDA. And then, of course, bioterrorism came up as well.    Now, you have shared some recommendations to deal with the agro-terrorism. What I see is the food integrity perspective for food safety, and really some good things. Incentivize interdisciplinary work, better centralized coordination, better surveillance and education. I wanted to run by you one of the solutions that these producers shared with me, to get your thoughts on. It was more frontline, actually, but it was to see more of a presence through our extension program, which I am a huge fan of extension. There aren't many places where we have an agent that is really focused with an expertise on food safety or integrity, and to have that--now, that is really a boots on the ground level, but somebody to be there to counsel, to advise, to guide producers around these food safety and what I would call food integrity issues. I wanted to get your thoughts on what these folks had suggested.</t>
   </si>
   <si>
@@ -605,6 +701,12 @@
   </si>
   <si>
     <t>412625</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Allen. Thank you. And I had to run out for a moment. I have two hearings going on here simultaneously, but I want to thank you for your testimony earlier. And I want to express to you that I do believe that if we can help other countries develop their agriculture, then I believe that that country will be a friend for life. I grew up on a farm, it is very important not only to feeding people, but it is also very good as far as dignity and the ability to produce something, particularly as valuable as food is, particularly in certain areas of the world.    I guess my question is, there are some nations, obviously, that are difficult to deal with, but are we doing all we need to do in those nations, some kind to mind, I have been on mission trips in several areas of the world; Moldova, Kenya, South Africa, South America. Are we doing everything that we need to do from the standpoint of this House, as far as making this available to these countries?</t>
@@ -1016,7 +1118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,7 +1126,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,4925 +1148,5743 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s"/>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
       <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G55" t="s">
+        <v>71</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
       <c r="H60" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
       <c r="H67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G69" t="s">
+        <v>87</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G75" t="s">
+        <v>87</v>
+      </c>
       <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G81" t="s">
+        <v>107</v>
+      </c>
       <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G83" t="s">
+        <v>107</v>
+      </c>
       <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G85" t="s">
+        <v>107</v>
+      </c>
       <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
       <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G89" t="s">
+        <v>116</v>
+      </c>
       <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G91" t="s">
+        <v>116</v>
+      </c>
       <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G93" t="s">
+        <v>116</v>
+      </c>
       <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>106</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G94" t="s">
+        <v>126</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G96" t="s">
+        <v>126</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>106</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G98" t="s">
+        <v>126</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>106</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G102" t="s">
+        <v>126</v>
+      </c>
       <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G105" t="s">
+        <v>126</v>
+      </c>
       <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>117</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G106" t="s">
+        <v>139</v>
+      </c>
       <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>117</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G108" t="s">
+        <v>139</v>
+      </c>
       <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>117</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G110" t="s">
+        <v>139</v>
+      </c>
       <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>117</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G116" t="s">
+        <v>139</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>117</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G117" t="s">
+        <v>139</v>
+      </c>
       <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>130</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G118" t="s">
+        <v>154</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G120" t="s">
+        <v>154</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G122" t="s">
+        <v>154</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G123" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>130</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G124" t="s">
+        <v>154</v>
+      </c>
       <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>130</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G125" t="s">
+        <v>154</v>
+      </c>
       <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>130</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G127" t="s">
+        <v>154</v>
+      </c>
       <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>130</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G130" t="s">
+        <v>154</v>
+      </c>
       <c r="H130" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>130</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G132" t="s">
+        <v>154</v>
+      </c>
       <c r="H132" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>130</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G134" t="s">
+        <v>154</v>
+      </c>
       <c r="H134" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>130</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G136" t="s">
+        <v>154</v>
+      </c>
       <c r="H136" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>130</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G137" t="s">
+        <v>154</v>
+      </c>
       <c r="H137" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>148</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G138" t="s">
+        <v>174</v>
+      </c>
       <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G139" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>148</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G140" t="s">
+        <v>174</v>
+      </c>
       <c r="H140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>148</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G142" t="s">
+        <v>174</v>
+      </c>
       <c r="H142" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>148</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G144" t="s">
+        <v>174</v>
+      </c>
       <c r="H144" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>148</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G145" t="s">
+        <v>174</v>
+      </c>
       <c r="H145" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>148</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G147" t="s">
+        <v>174</v>
+      </c>
       <c r="H147" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>20</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>148</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G149" t="s">
+        <v>174</v>
+      </c>
       <c r="H149" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>148</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G151" t="s">
+        <v>174</v>
+      </c>
       <c r="H151" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>148</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G152" t="s">
+        <v>174</v>
+      </c>
       <c r="H152" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>20</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>148</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G154" t="s">
+        <v>174</v>
+      </c>
       <c r="H154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>148</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G155" t="s">
+        <v>174</v>
+      </c>
       <c r="H155" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G156" t="s">
+        <v>20</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>148</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G157" t="s">
+        <v>174</v>
+      </c>
       <c r="H157" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>20</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>148</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G159" t="s">
+        <v>174</v>
+      </c>
       <c r="H159" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>148</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G160" t="s">
+        <v>174</v>
+      </c>
       <c r="H160" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>148</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G161" t="s">
+        <v>174</v>
+      </c>
       <c r="H161" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I161" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>148</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G163" t="s">
+        <v>174</v>
+      </c>
       <c r="H163" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>148</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G164" t="s">
+        <v>174</v>
+      </c>
       <c r="H164" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>174</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G165" t="s">
+        <v>201</v>
+      </c>
       <c r="H165" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I165" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>174</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G167" t="s">
+        <v>201</v>
+      </c>
       <c r="H167" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I167" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>174</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G169" t="s">
+        <v>201</v>
+      </c>
       <c r="H169" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I169" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>20</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>174</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G171" t="s">
+        <v>201</v>
+      </c>
       <c r="H171" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I171" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>182</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="G172" t="s">
+        <v>211</v>
+      </c>
       <c r="H172" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I172" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G173" t="s">
+        <v>18</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>182</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="G174" t="s">
+        <v>211</v>
+      </c>
       <c r="H174" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I174" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G175" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>182</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="G176" t="s">
+        <v>211</v>
+      </c>
       <c r="H176" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>188</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G177" t="s">
+        <v>219</v>
+      </c>
       <c r="H177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I177" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>188</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G179" t="s">
+        <v>219</v>
+      </c>
       <c r="H179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>188</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G181" t="s">
+        <v>219</v>
+      </c>
       <c r="H181" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I181" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G182" t="s">
+        <v>18</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>188</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G183" t="s">
+        <v>219</v>
+      </c>
       <c r="H183" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I183" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>196</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G184" t="s">
+        <v>229</v>
+      </c>
       <c r="H184" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>18</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>196</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G186" t="s">
+        <v>229</v>
+      </c>
       <c r="H186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I186" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
+        <v>18</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G189" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G190" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G191" t="s">
+        <v>18</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>196</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G192" t="s">
+        <v>229</v>
+      </c>
       <c r="H192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I192" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>196</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G194" t="s">
+        <v>229</v>
+      </c>
       <c r="H194" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I194" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G195" t="s">
+        <v>18</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>196</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G196" t="s">
+        <v>229</v>
+      </c>
       <c r="H196" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I196" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>196</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G197" t="s">
+        <v>229</v>
+      </c>
       <c r="H197" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I197" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G198" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G199" t="s">
+        <v>18</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G200" t="s">
+        <v>20</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
+        <v>20</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G202" t="s">
+        <v>20</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G203" t="s">
+        <v>18</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G204" t="s">
+        <v>20</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G205" t="s">
+        <v>20</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>217</v>
+        <v>17</v>
+      </c>
+      <c r="G206" t="s">
+        <v>20</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97543.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97543.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400316</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Peterson</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
   </si>
   <si>
     <t>412673</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Kelly</t>
@@ -1118,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,7 +1135,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,5740 +1160,6148 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
       </c>
       <c r="I21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I38" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G81" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I83" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G85" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H87" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I89" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G91" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G93" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G94" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I94" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G96" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I96" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G98" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s">
-        <v>20</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G102" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G105" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G106" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I106" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G108" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I108" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>22</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G110" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>22</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>22</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>22</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s">
-        <v>20</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>22</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s">
-        <v>20</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>22</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G116" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G117" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G118" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I118" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s">
-        <v>18</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G120" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H120" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I120" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G122" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I122" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G124" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H124" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I124" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G125" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I125" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s">
-        <v>20</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>22</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G127" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>22</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G130" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I130" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>22</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G132" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I132" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G134" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I134" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G136" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H136" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I136" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G137" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H137" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I137" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G138" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H138" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I138" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" t="s">
-        <v>18</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G140" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H140" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I140" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>22</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G142" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H142" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J142" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>22</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G144" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H144" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I144" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G145" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H145" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I145" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s">
-        <v>20</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>22</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G147" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H147" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I147" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s">
-        <v>20</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>22</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G149" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H149" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I149" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J149" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>22</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G151" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H151" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I151" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J151" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G152" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H152" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I152" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s">
-        <v>20</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>22</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G154" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H154" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I154" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J154" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G155" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H155" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I155" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
-      </c>
-      <c r="G156" t="s">
-        <v>20</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G157" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H157" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I157" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s">
-        <v>20</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>22</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G159" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H159" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I159" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G160" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H160" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J160" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G161" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H161" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I161" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J161" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s">
-        <v>20</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>22</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G163" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H163" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I163" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G164" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H164" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I164" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J164" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G165" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="H165" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I165" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s">
-        <v>18</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G167" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="H167" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I167" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s">
-        <v>18</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G169" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I169" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J169" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s">
-        <v>20</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>22</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G171" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="H171" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I171" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J171" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G172" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="H172" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I172" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>215</v>
+      </c>
+      <c r="J172" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s">
-        <v>18</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G174" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="H174" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I174" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>20</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>22</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G176" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="H176" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I176" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>215</v>
+      </c>
+      <c r="J176" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G177" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="H177" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I177" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J177" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s">
-        <v>20</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>22</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G179" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="H179" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I179" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s">
-        <v>18</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>20</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G181" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="H181" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I181" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J181" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
-      </c>
-      <c r="G182" t="s">
-        <v>18</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G183" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="H183" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I183" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G184" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="H184" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I184" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J184" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s">
-        <v>18</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G186" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="H186" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I186" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="J186" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" t="s">
-        <v>18</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s">
-        <v>18</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>20</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
-      </c>
-      <c r="G189" t="s">
-        <v>18</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>17</v>
-      </c>
-      <c r="G190" t="s">
-        <v>18</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>20</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" t="s">
-        <v>18</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>20</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G192" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="H192" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I192" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J192" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>17</v>
-      </c>
-      <c r="G193" t="s">
-        <v>18</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>20</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G194" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="H194" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I194" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J194" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>17</v>
-      </c>
-      <c r="G195" t="s">
-        <v>18</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G196" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="H196" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I196" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J196" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G197" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="H197" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I197" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J197" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
-      </c>
-      <c r="G198" t="s">
-        <v>18</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
-      </c>
-      <c r="G199" t="s">
-        <v>18</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>20</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
-      </c>
-      <c r="G200" t="s">
-        <v>20</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>22</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
-      </c>
-      <c r="G201" t="s">
-        <v>20</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>22</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
-      </c>
-      <c r="G202" t="s">
-        <v>20</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>22</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
-      </c>
-      <c r="G203" t="s">
-        <v>18</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>20</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
-      </c>
-      <c r="G204" t="s">
-        <v>20</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>22</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
-      </c>
-      <c r="G205" t="s">
-        <v>20</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>22</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>17</v>
-      </c>
-      <c r="G206" t="s">
-        <v>20</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>251</v>
+        <v>19</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>22</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
